--- a/data/rna/ncbi/SRA_metadata.xlsx
+++ b/data/rna/ncbi/SRA_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/rna/ncbi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6305BF2A-18C3-AA49-BE49-7B467D37320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0103AA-654C-E742-9C4F-A869C0C81583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34440" yWindow="300" windowWidth="26380" windowHeight="17160" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,766 +1466,766 @@
     <t>fastq</t>
   </si>
   <si>
-    <t>1_S122_R1_001</t>
-  </si>
-  <si>
-    <t>1_S122_R2_001</t>
-  </si>
-  <si>
-    <t>1_S912_R1_001</t>
-  </si>
-  <si>
-    <t>1_S912_R2_001</t>
-  </si>
-  <si>
-    <t>10_S131_R1_001</t>
-  </si>
-  <si>
-    <t>10_S131_R2_001</t>
-  </si>
-  <si>
-    <t>10_S921_R1_001</t>
-  </si>
-  <si>
-    <t>10_S921_R2_001</t>
-  </si>
-  <si>
-    <t>11_S132_R1_001</t>
-  </si>
-  <si>
-    <t>11_S132_R2_001</t>
-  </si>
-  <si>
-    <t>11_S922_R1_001</t>
-  </si>
-  <si>
-    <t>11_S922_R2_001</t>
-  </si>
-  <si>
-    <t>12_S133_R1_001</t>
-  </si>
-  <si>
-    <t>12_S133_R2_001</t>
-  </si>
-  <si>
-    <t>12_S923_R1_001</t>
-  </si>
-  <si>
-    <t>12_S923_R2_001</t>
-  </si>
-  <si>
-    <t>13_S134_R1_001</t>
-  </si>
-  <si>
-    <t>13_S134_R2_001</t>
-  </si>
-  <si>
-    <t>13_S924_R1_001</t>
-  </si>
-  <si>
-    <t>13_S924_R2_001</t>
-  </si>
-  <si>
-    <t>14_S135_R1_001</t>
-  </si>
-  <si>
-    <t>14_S135_R2_001</t>
-  </si>
-  <si>
-    <t>14_S925_R1_001</t>
-  </si>
-  <si>
-    <t>14_S925_R2_001</t>
-  </si>
-  <si>
-    <t>15_S136_R1_001</t>
-  </si>
-  <si>
-    <t>15_S136_R2_001</t>
-  </si>
-  <si>
-    <t>15_S926_R1_001</t>
-  </si>
-  <si>
-    <t>15_S926_R2_001</t>
-  </si>
-  <si>
-    <t>16_S137_R1_001</t>
-  </si>
-  <si>
-    <t>16_S137_R2_001</t>
-  </si>
-  <si>
-    <t>16_S927_R1_001</t>
-  </si>
-  <si>
-    <t>16_S927_R2_001</t>
-  </si>
-  <si>
-    <t>17_S138_R1_001</t>
-  </si>
-  <si>
-    <t>17_S138_R2_001</t>
-  </si>
-  <si>
-    <t>17_S928_R1_001</t>
-  </si>
-  <si>
-    <t>17_S928_R2_001</t>
-  </si>
-  <si>
-    <t>18_S139_R1_001</t>
-  </si>
-  <si>
-    <t>18_S139_R2_001</t>
-  </si>
-  <si>
-    <t>18_S929_R1_001</t>
-  </si>
-  <si>
-    <t>18_S929_R2_001</t>
-  </si>
-  <si>
-    <t>19_S140_R1_001</t>
-  </si>
-  <si>
-    <t>19_S140_R2_001</t>
-  </si>
-  <si>
-    <t>19_S930_R1_001</t>
-  </si>
-  <si>
-    <t>19_S930_R2_001</t>
-  </si>
-  <si>
-    <t>2_S123_R1_001</t>
-  </si>
-  <si>
-    <t>2_S123_R2_001</t>
-  </si>
-  <si>
-    <t>2_S913_R1_001</t>
-  </si>
-  <si>
-    <t>2_S913_R2_001</t>
-  </si>
-  <si>
-    <t>20_S141_R1_001</t>
-  </si>
-  <si>
-    <t>20_S141_R2_001</t>
-  </si>
-  <si>
-    <t>20_S931_R1_001</t>
-  </si>
-  <si>
-    <t>20_S931_R2_001</t>
-  </si>
-  <si>
-    <t>21_S142_R1_001</t>
-  </si>
-  <si>
-    <t>21_S142_R2_001</t>
-  </si>
-  <si>
-    <t>21_S932_R1_001</t>
-  </si>
-  <si>
-    <t>21_S932_R2_001</t>
-  </si>
-  <si>
-    <t>22_S143_R1_001</t>
-  </si>
-  <si>
-    <t>22_S143_R2_001</t>
-  </si>
-  <si>
-    <t>22_S933_R1_001</t>
-  </si>
-  <si>
-    <t>22_S933_R2_001</t>
-  </si>
-  <si>
-    <t>23_S144_R1_001</t>
-  </si>
-  <si>
-    <t>23_S144_R2_001</t>
-  </si>
-  <si>
-    <t>23_S934_R1_001</t>
-  </si>
-  <si>
-    <t>23_S934_R2_001</t>
-  </si>
-  <si>
-    <t>24_S145_R1_001</t>
-  </si>
-  <si>
-    <t>24_S145_R2_001</t>
-  </si>
-  <si>
-    <t>24_S935_R1_001</t>
-  </si>
-  <si>
-    <t>24_S935_R2_001</t>
-  </si>
-  <si>
-    <t>25_S146_R1_001</t>
-  </si>
-  <si>
-    <t>25_S146_R2_001</t>
-  </si>
-  <si>
-    <t>25_S936_R1_001</t>
-  </si>
-  <si>
-    <t>25_S936_R2_001</t>
-  </si>
-  <si>
-    <t>26_S147_R1_001</t>
-  </si>
-  <si>
-    <t>26_S147_R2_001</t>
-  </si>
-  <si>
-    <t>26_S937_R1_001</t>
-  </si>
-  <si>
-    <t>26_S937_R2_001</t>
-  </si>
-  <si>
-    <t>27_S148_R1_001</t>
-  </si>
-  <si>
-    <t>27_S148_R2_001</t>
-  </si>
-  <si>
-    <t>27_S938_R1_001</t>
-  </si>
-  <si>
-    <t>27_S938_R2_001</t>
-  </si>
-  <si>
-    <t>28_S149_R1_001</t>
-  </si>
-  <si>
-    <t>28_S149_R2_001</t>
-  </si>
-  <si>
-    <t>28_S939_R1_001</t>
-  </si>
-  <si>
-    <t>28_S939_R2_001</t>
-  </si>
-  <si>
-    <t>29_S150_R1_001</t>
-  </si>
-  <si>
-    <t>29_S150_R2_001</t>
-  </si>
-  <si>
-    <t>29_S940_R1_001</t>
-  </si>
-  <si>
-    <t>29_S940_R2_001</t>
-  </si>
-  <si>
-    <t>3_S124_R1_001</t>
-  </si>
-  <si>
-    <t>3_S124_R2_001</t>
-  </si>
-  <si>
-    <t>3_S914_R1_001</t>
-  </si>
-  <si>
-    <t>3_S914_R2_001</t>
-  </si>
-  <si>
-    <t>30_S151_R1_001</t>
-  </si>
-  <si>
-    <t>30_S151_R2_001</t>
-  </si>
-  <si>
-    <t>30_S941_R1_001</t>
-  </si>
-  <si>
-    <t>30_S941_R2_001</t>
-  </si>
-  <si>
-    <t>31_S152_R1_001</t>
-  </si>
-  <si>
-    <t>31_S152_R2_001</t>
-  </si>
-  <si>
-    <t>31_S942_R1_001</t>
-  </si>
-  <si>
-    <t>31_S942_R2_001</t>
-  </si>
-  <si>
-    <t>32_S153_R1_001</t>
-  </si>
-  <si>
-    <t>32_S153_R2_001</t>
-  </si>
-  <si>
-    <t>32_S943_R1_001</t>
-  </si>
-  <si>
-    <t>32_S943_R2_001</t>
-  </si>
-  <si>
-    <t>33_S154_R1_001</t>
-  </si>
-  <si>
-    <t>33_S154_R2_001</t>
-  </si>
-  <si>
-    <t>33_S944_R1_001</t>
-  </si>
-  <si>
-    <t>33_S944_R2_001</t>
-  </si>
-  <si>
-    <t>34_S155_R1_001</t>
-  </si>
-  <si>
-    <t>34_S155_R2_001</t>
-  </si>
-  <si>
-    <t>34_S945_R1_001</t>
-  </si>
-  <si>
-    <t>34_S945_R2_001</t>
-  </si>
-  <si>
-    <t>35_S156_R1_001</t>
-  </si>
-  <si>
-    <t>35_S156_R2_001</t>
-  </si>
-  <si>
-    <t>35_S946_R1_001</t>
-  </si>
-  <si>
-    <t>35_S946_R2_001</t>
-  </si>
-  <si>
-    <t>36_S157_R1_001</t>
-  </si>
-  <si>
-    <t>36_S157_R2_001</t>
-  </si>
-  <si>
-    <t>36_S947_R1_001</t>
-  </si>
-  <si>
-    <t>36_S947_R2_001</t>
-  </si>
-  <si>
-    <t>37_S158_R1_001</t>
-  </si>
-  <si>
-    <t>37_S158_R2_001</t>
-  </si>
-  <si>
-    <t>37_S948_R1_001</t>
-  </si>
-  <si>
-    <t>37_S948_R2_001</t>
-  </si>
-  <si>
-    <t>38_S159_R1_001</t>
-  </si>
-  <si>
-    <t>38_S159_R2_001</t>
-  </si>
-  <si>
-    <t>38_S949_R1_001</t>
-  </si>
-  <si>
-    <t>38_S949_R2_001</t>
-  </si>
-  <si>
-    <t>39_S160_R1_001</t>
-  </si>
-  <si>
-    <t>39_S160_R2_001</t>
-  </si>
-  <si>
-    <t>39_S950_R1_001</t>
-  </si>
-  <si>
-    <t>39_S950_R2_001</t>
-  </si>
-  <si>
-    <t>4_S125_R1_001</t>
-  </si>
-  <si>
-    <t>4_S125_R2_001</t>
-  </si>
-  <si>
-    <t>4_S915_R1_001</t>
-  </si>
-  <si>
-    <t>4_S915_R2_001</t>
-  </si>
-  <si>
-    <t>40_S161_R1_001</t>
-  </si>
-  <si>
-    <t>40_S161_R2_001</t>
-  </si>
-  <si>
-    <t>40_S951_R1_001</t>
-  </si>
-  <si>
-    <t>40_S951_R2_001</t>
-  </si>
-  <si>
-    <t>41_S162_R1_001</t>
-  </si>
-  <si>
-    <t>41_S162_R2_001</t>
-  </si>
-  <si>
-    <t>41_S952_R1_001</t>
-  </si>
-  <si>
-    <t>41_S952_R2_001</t>
-  </si>
-  <si>
-    <t>42_S163_R1_001</t>
-  </si>
-  <si>
-    <t>42_S163_R2_001</t>
-  </si>
-  <si>
-    <t>42_S953_R1_001</t>
-  </si>
-  <si>
-    <t>42_S953_R2_001</t>
-  </si>
-  <si>
-    <t>43_S164_R1_001</t>
-  </si>
-  <si>
-    <t>43_S164_R2_001</t>
-  </si>
-  <si>
-    <t>43_S954_R1_001</t>
-  </si>
-  <si>
-    <t>43_S954_R2_001</t>
-  </si>
-  <si>
-    <t>44_S165_R1_001</t>
-  </si>
-  <si>
-    <t>44_S165_R2_001</t>
-  </si>
-  <si>
-    <t>44_S955_R1_001</t>
-  </si>
-  <si>
-    <t>44_S955_R2_001</t>
-  </si>
-  <si>
-    <t>45_S166_R1_001</t>
-  </si>
-  <si>
-    <t>45_S166_R2_001</t>
-  </si>
-  <si>
-    <t>45_S956_R1_001</t>
-  </si>
-  <si>
-    <t>45_S956_R2_001</t>
-  </si>
-  <si>
-    <t>46_S167_R1_001</t>
-  </si>
-  <si>
-    <t>46_S167_R2_001</t>
-  </si>
-  <si>
-    <t>46_S957_R1_001</t>
-  </si>
-  <si>
-    <t>46_S957_R2_001</t>
-  </si>
-  <si>
-    <t>47_S168_R1_001</t>
-  </si>
-  <si>
-    <t>47_S168_R2_001</t>
-  </si>
-  <si>
-    <t>47_S958_R1_001</t>
-  </si>
-  <si>
-    <t>47_S958_R2_001</t>
-  </si>
-  <si>
-    <t>48_S169_R1_001</t>
-  </si>
-  <si>
-    <t>48_S169_R2_001</t>
-  </si>
-  <si>
-    <t>48_S959_R1_001</t>
-  </si>
-  <si>
-    <t>48_S959_R2_001</t>
-  </si>
-  <si>
-    <t>49_S170_R1_001</t>
-  </si>
-  <si>
-    <t>49_S170_R2_001</t>
-  </si>
-  <si>
-    <t>49_S960_R1_001</t>
-  </si>
-  <si>
-    <t>49_S960_R2_001</t>
-  </si>
-  <si>
-    <t>5_S126_R1_001</t>
-  </si>
-  <si>
-    <t>5_S126_R2_001</t>
-  </si>
-  <si>
-    <t>5_S916_R1_001</t>
-  </si>
-  <si>
-    <t>5_S916_R2_001</t>
-  </si>
-  <si>
-    <t>50_S171_R1_001</t>
-  </si>
-  <si>
-    <t>50_S171_R2_001</t>
-  </si>
-  <si>
-    <t>50_S961_R1_001</t>
-  </si>
-  <si>
-    <t>50_S961_R2_001</t>
-  </si>
-  <si>
-    <t>51_S172_R1_001</t>
-  </si>
-  <si>
-    <t>51_S172_R2_001</t>
-  </si>
-  <si>
-    <t>51_S962_R1_001</t>
-  </si>
-  <si>
-    <t>51_S962_R2_001</t>
-  </si>
-  <si>
-    <t>52_S173_R1_001</t>
-  </si>
-  <si>
-    <t>52_S173_R2_001</t>
-  </si>
-  <si>
-    <t>52_S963_R1_001</t>
-  </si>
-  <si>
-    <t>52_S963_R2_001</t>
-  </si>
-  <si>
-    <t>53_S174_R1_001</t>
-  </si>
-  <si>
-    <t>53_S174_R2_001</t>
-  </si>
-  <si>
-    <t>53_S964_R1_001</t>
-  </si>
-  <si>
-    <t>53_S964_R2_001</t>
-  </si>
-  <si>
-    <t>54_S175_R1_001</t>
-  </si>
-  <si>
-    <t>54_S175_R2_001</t>
-  </si>
-  <si>
-    <t>55_S176_R1_001</t>
-  </si>
-  <si>
-    <t>55_S176_R2_001</t>
-  </si>
-  <si>
-    <t>55_S966_R1_001</t>
-  </si>
-  <si>
-    <t>55_S966_R2_001</t>
-  </si>
-  <si>
-    <t>56_S177_R1_001</t>
-  </si>
-  <si>
-    <t>56_S177_R2_001</t>
-  </si>
-  <si>
-    <t>56_S967_R1_001</t>
-  </si>
-  <si>
-    <t>56_S967_R2_001</t>
-  </si>
-  <si>
-    <t>57_S178_R1_001</t>
-  </si>
-  <si>
-    <t>57_S178_R2_001</t>
-  </si>
-  <si>
-    <t>57_S968_R1_001</t>
-  </si>
-  <si>
-    <t>57_S968_R2_001</t>
-  </si>
-  <si>
-    <t>58_S179_R1_001</t>
-  </si>
-  <si>
-    <t>58_S179_R2_001</t>
-  </si>
-  <si>
-    <t>58_S969_R1_001</t>
-  </si>
-  <si>
-    <t>58_S969_R2_001</t>
-  </si>
-  <si>
-    <t>59_S180_R1_001</t>
-  </si>
-  <si>
-    <t>59_S180_R2_001</t>
-  </si>
-  <si>
-    <t>59_S970_R1_001</t>
-  </si>
-  <si>
-    <t>59_S970_R2_001</t>
-  </si>
-  <si>
-    <t>6_S127_R1_001</t>
-  </si>
-  <si>
-    <t>6_S127_R2_001</t>
-  </si>
-  <si>
-    <t>6_S917_R1_001</t>
-  </si>
-  <si>
-    <t>6_S917_R2_001</t>
-  </si>
-  <si>
-    <t>60_S181_R1_001</t>
-  </si>
-  <si>
-    <t>60_S181_R2_001</t>
-  </si>
-  <si>
-    <t>60_S971_R1_001</t>
-  </si>
-  <si>
-    <t>60_S971_R2_001</t>
-  </si>
-  <si>
-    <t>61_S182_R1_001</t>
-  </si>
-  <si>
-    <t>61_S182_R2_001</t>
-  </si>
-  <si>
-    <t>61_S972_R1_001</t>
-  </si>
-  <si>
-    <t>61_S972_R2_001</t>
-  </si>
-  <si>
-    <t>62_S183_R1_001</t>
-  </si>
-  <si>
-    <t>62_S183_R2_001</t>
-  </si>
-  <si>
-    <t>62_S973_R1_001</t>
-  </si>
-  <si>
-    <t>62_S973_R2_001</t>
-  </si>
-  <si>
-    <t>63_S184_R1_001</t>
-  </si>
-  <si>
-    <t>63_S184_R2_001</t>
-  </si>
-  <si>
-    <t>63_S974_R1_001</t>
-  </si>
-  <si>
-    <t>63_S974_R2_001</t>
-  </si>
-  <si>
-    <t>64_S185_R1_001</t>
-  </si>
-  <si>
-    <t>64_S185_R2_001</t>
-  </si>
-  <si>
-    <t>64_S975_R1_001</t>
-  </si>
-  <si>
-    <t>64_S975_R2_001</t>
-  </si>
-  <si>
-    <t>7_S128_R1_001</t>
-  </si>
-  <si>
-    <t>7_S128_R2_001</t>
-  </si>
-  <si>
-    <t>7_S918_R1_001</t>
-  </si>
-  <si>
-    <t>7_S918_R2_001</t>
-  </si>
-  <si>
-    <t>8_S129_R1_001</t>
-  </si>
-  <si>
-    <t>8_S129_R2_001</t>
-  </si>
-  <si>
-    <t>8_S919_R1_001</t>
-  </si>
-  <si>
-    <t>8_S919_R2_001</t>
-  </si>
-  <si>
-    <t>9_S130_R1_001</t>
-  </si>
-  <si>
-    <t>9_S130_R2_001</t>
-  </si>
-  <si>
-    <t>9_S920_R1_001</t>
-  </si>
-  <si>
-    <t>9_S920_R2_001</t>
+    <t>1_S122_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>1_S122_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>1_S912_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>1_S912_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>2_S123_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>2_S123_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>2_S913_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>2_S913_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3_S124_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3_S124_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3_S914_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>3_S914_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4_S125_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4_S125_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4_S915_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>4_S915_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>5_S126_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>5_S126_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>5_S916_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>5_S916_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>6_S127_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>6_S127_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>6_S917_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>6_S917_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>7_S128_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>7_S128_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>7_S918_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>7_S918_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>8_S129_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>8_S129_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>8_S919_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>8_S919_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>9_S130_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>9_S130_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>9_S920_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>9_S920_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10_S131_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10_S131_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10_S921_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>10_S921_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>11_S132_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>11_S132_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>11_S922_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>11_S922_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>12_S133_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>12_S133_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>12_S923_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>12_S923_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>13_S134_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>13_S134_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>13_S924_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>13_S924_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>14_S135_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>14_S135_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>14_S925_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>14_S925_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>15_S136_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>15_S136_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>15_S926_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>15_S926_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>16_S137_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>16_S137_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>16_S927_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>16_S927_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>17_S138_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>17_S138_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>17_S928_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>17_S928_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>18_S139_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>18_S139_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>18_S929_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>18_S929_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>19_S140_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>19_S140_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>19_S930_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>19_S930_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>20_S141_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>20_S141_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>20_S931_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>20_S931_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>21_S142_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>21_S142_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>21_S932_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>21_S932_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>22_S143_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>22_S143_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>22_S933_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>22_S933_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>23_S144_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>23_S144_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>23_S934_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>23_S934_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>24_S145_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>24_S145_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>24_S935_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>24_S935_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>25_S146_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>25_S146_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>25_S936_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>25_S936_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>26_S147_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>26_S147_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>26_S937_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>26_S937_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>27_S148_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>27_S148_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>27_S938_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>27_S938_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>28_S149_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>28_S149_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>28_S939_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>28_S939_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>29_S150_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>29_S150_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>29_S940_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>29_S940_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>30_S151_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>30_S151_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>30_S941_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>30_S941_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>31_S152_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>31_S152_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>31_S942_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>31_S942_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>32_S153_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>32_S153_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>32_S943_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>32_S943_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>33_S154_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>33_S154_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>33_S944_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>33_S944_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>34_S155_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>34_S155_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>34_S945_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>34_S945_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>35_S156_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>35_S156_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>35_S946_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>35_S946_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>36_S157_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>36_S157_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>36_S947_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>36_S947_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>37_S158_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>37_S158_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>37_S948_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>37_S948_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>38_S159_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>38_S159_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>38_S949_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>38_S949_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>39_S160_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>39_S160_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>39_S950_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>39_S950_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>40_S161_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>40_S161_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>40_S951_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>40_S951_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>41_S162_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>41_S162_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>41_S952_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>41_S952_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>42_S163_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>42_S163_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>42_S953_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>42_S953_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>43_S164_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>43_S164_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>43_S954_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>43_S954_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>44_S165_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>44_S165_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>44_S955_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>44_S955_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>45_S166_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>45_S166_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>45_S956_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>45_S956_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>46_S167_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>46_S167_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>46_S957_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>46_S957_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>47_S168_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>47_S168_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>47_S958_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>47_S958_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>48_S169_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>48_S169_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>48_S959_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>48_S959_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>49_S170_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>49_S170_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>49_S960_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>49_S960_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>50_S171_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>50_S171_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>50_S961_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>50_S961_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>51_S172_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>51_S172_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>51_S962_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>51_S962_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>52_S173_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>52_S173_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>52_S963_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>52_S963_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>53_S174_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>53_S174_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>53_S964_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>53_S964_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>54_S175_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>54_S175_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>55_S176_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>55_S176_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>55_S966_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>55_S966_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>56_S177_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>56_S177_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>56_S967_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>56_S967_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>57_S178_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>57_S178_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>57_S968_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>57_S968_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>58_S179_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>58_S179_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>58_S969_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>58_S969_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>59_S180_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>59_S180_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>59_S970_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>59_S970_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>60_S181_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>60_S181_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>60_S971_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>60_S971_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>61_S182_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>61_S182_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>61_S972_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>61_S972_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>62_S183_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>62_S183_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>62_S973_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>62_S973_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>63_S184_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>63_S184_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>63_S974_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>63_S974_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>64_S185_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>64_S185_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>64_S975_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>64_S975_R2_001.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -2722,6 +2722,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="62"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="62" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2734,9 +2739,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2746,11 +2748,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="77">
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
@@ -3283,52 +3283,52 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
@@ -3388,15 +3388,15 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3428,27 +3428,27 @@
       <c r="B37" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
@@ -3520,8 +3520,8 @@
   <dimension ref="A1:Q286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3599,10 +3599,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="46">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3632,24 +3632,24 @@
       <c r="K2" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="40" t="s">
         <v>363</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="40" t="s">
         <v>364</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="40" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="46">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="36">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -3679,24 +3679,24 @@
       <c r="K3" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L3" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>409</v>
+      <c r="L3" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="36">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -3726,24 +3726,24 @@
       <c r="K4" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L4" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>452</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>453</v>
+      <c r="L4" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="46">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="36">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -3773,24 +3773,24 @@
       <c r="K5" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L5" s="50" t="s">
-        <v>494</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>496</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>497</v>
+      <c r="L5" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="46">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="36">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -3820,24 +3820,24 @@
       <c r="K6" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L6" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>539</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>540</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>541</v>
+      <c r="L6" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>380</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="46">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="36">
         <v>6</v>
       </c>
       <c r="C7" t="s">
@@ -3867,24 +3867,24 @@
       <c r="K7" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L7" s="50" t="s">
-        <v>580</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>581</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>582</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>583</v>
+      <c r="L7" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>383</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="O7" s="40" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="46">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="36">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -3914,24 +3914,24 @@
       <c r="K8" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>605</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>606</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>607</v>
+      <c r="L8" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="O8" s="40" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="46">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="36">
         <v>8</v>
       </c>
       <c r="C9" t="s">
@@ -3961,24 +3961,24 @@
       <c r="K9" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L9" s="50" t="s">
-        <v>608</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>609</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>610</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>611</v>
+      <c r="L9" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="N9" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="46">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="36">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -4008,24 +4008,24 @@
       <c r="K10" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L10" s="50" t="s">
-        <v>612</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>613</v>
-      </c>
-      <c r="N10" s="50" t="s">
-        <v>614</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>615</v>
+      <c r="L10" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="N10" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="O10" s="40" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="46">
+      <c r="A11" s="36">
         <v>10</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="36">
         <v>10</v>
       </c>
       <c r="C11" t="s">
@@ -4055,24 +4055,24 @@
       <c r="K11" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L11" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="O11" s="50" t="s">
-        <v>369</v>
+      <c r="L11" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="O11" s="40" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="46">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="36">
         <v>11</v>
       </c>
       <c r="C12" t="s">
@@ -4102,24 +4102,24 @@
       <c r="K12" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L12" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="M12" s="50" t="s">
-        <v>371</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>372</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>373</v>
+      <c r="L12" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="N12" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="O12" s="40" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="46">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="36">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -4149,24 +4149,24 @@
       <c r="K13" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L13" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="M13" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>376</v>
-      </c>
-      <c r="O13" s="50" t="s">
-        <v>377</v>
+      <c r="L13" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="N13" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="46">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="36">
         <v>13</v>
       </c>
       <c r="C14" t="s">
@@ -4196,24 +4196,24 @@
       <c r="K14" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L14" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="M14" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="N14" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>381</v>
+      <c r="L14" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="M14" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="N14" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="O14" s="40" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="46">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="36">
         <v>14</v>
       </c>
       <c r="C15" t="s">
@@ -4243,24 +4243,24 @@
       <c r="K15" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L15" s="50" t="s">
-        <v>382</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>383</v>
-      </c>
-      <c r="N15" s="50" t="s">
-        <v>384</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>385</v>
+      <c r="L15" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="46">
+      <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="36">
         <v>15</v>
       </c>
       <c r="C16" t="s">
@@ -4290,24 +4290,24 @@
       <c r="K16" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L16" s="50" t="s">
-        <v>386</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>388</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>389</v>
+      <c r="L16" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="N16" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="46">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="36">
         <v>16</v>
       </c>
       <c r="C17" t="s">
@@ -4337,24 +4337,24 @@
       <c r="K17" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L17" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="O17" s="50" t="s">
-        <v>393</v>
+      <c r="L17" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="N17" s="40" t="s">
+        <v>424</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="46">
+      <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="36">
         <v>17</v>
       </c>
       <c r="C18" t="s">
@@ -4384,24 +4384,24 @@
       <c r="K18" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L18" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>395</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="O18" s="50" t="s">
-        <v>397</v>
+      <c r="L18" s="40" t="s">
+        <v>426</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="46">
+      <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="36">
         <v>18</v>
       </c>
       <c r="C19" t="s">
@@ -4431,24 +4431,24 @@
       <c r="K19" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L19" s="50" t="s">
-        <v>398</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>399</v>
-      </c>
-      <c r="N19" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="O19" s="50" t="s">
-        <v>401</v>
+      <c r="L19" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="O19" s="40" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
+      <c r="A20" s="36">
         <v>19</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="36">
         <v>19</v>
       </c>
       <c r="C20" t="s">
@@ -4478,24 +4478,24 @@
       <c r="K20" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L20" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="M20" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="N20" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="O20" s="50" t="s">
-        <v>405</v>
+      <c r="L20" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>435</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
+      <c r="A21" s="36">
         <v>20</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="36">
         <v>20</v>
       </c>
       <c r="C21" t="s">
@@ -4525,24 +4525,24 @@
       <c r="K21" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L21" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>413</v>
+      <c r="L21" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="O21" s="40" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="46">
+      <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="36">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -4572,24 +4572,24 @@
       <c r="K22" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L22" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>415</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>416</v>
-      </c>
-      <c r="O22" s="50" t="s">
-        <v>417</v>
+      <c r="L22" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
+      <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="36">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -4619,24 +4619,24 @@
       <c r="K23" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L23" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="M23" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>421</v>
+      <c r="L23" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
+      <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="36">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -4666,24 +4666,24 @@
       <c r="K24" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L24" s="50" t="s">
-        <v>422</v>
-      </c>
-      <c r="M24" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>424</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>425</v>
+      <c r="L24" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="46">
+      <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="36">
         <v>24</v>
       </c>
       <c r="C25" t="s">
@@ -4713,24 +4713,24 @@
       <c r="K25" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L25" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="M25" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="N25" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="O25" s="50" t="s">
-        <v>429</v>
+      <c r="L25" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="N25" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="O25" s="40" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="46">
+      <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="36">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -4760,24 +4760,24 @@
       <c r="K26" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L26" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="N26" s="50" t="s">
-        <v>432</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>433</v>
+      <c r="L26" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>460</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
+      <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="36">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -4807,24 +4807,24 @@
       <c r="K27" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L27" s="50" t="s">
-        <v>434</v>
-      </c>
-      <c r="M27" s="50" t="s">
-        <v>435</v>
-      </c>
-      <c r="N27" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>437</v>
+      <c r="L27" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="N27" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
+      <c r="A28" s="36">
         <v>27</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="36">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -4854,24 +4854,24 @@
       <c r="K28" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L28" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="M28" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="N28" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>441</v>
+      <c r="L28" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="N28" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="O28" s="40" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
+      <c r="A29" s="36">
         <v>28</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="36">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -4901,24 +4901,24 @@
       <c r="K29" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L29" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="M29" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="N29" s="50" t="s">
-        <v>444</v>
-      </c>
-      <c r="O29" s="50" t="s">
-        <v>445</v>
+      <c r="L29" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="N29" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="O29" s="40" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
+      <c r="A30" s="36">
         <v>29</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="36">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -4948,24 +4948,24 @@
       <c r="K30" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L30" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="M30" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="N30" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="O30" s="50" t="s">
-        <v>449</v>
+      <c r="L30" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="N30" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
+      <c r="A31" s="36">
         <v>30</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="36">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -4995,24 +4995,24 @@
       <c r="K31" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L31" s="50" t="s">
-        <v>454</v>
-      </c>
-      <c r="M31" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="N31" s="50" t="s">
-        <v>456</v>
-      </c>
-      <c r="O31" s="50" t="s">
-        <v>457</v>
+      <c r="L31" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="N31" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="O31" s="40" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="46">
+      <c r="A32" s="36">
         <v>31</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="36">
         <v>31</v>
       </c>
       <c r="C32" t="s">
@@ -5042,24 +5042,24 @@
       <c r="K32" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L32" s="50" t="s">
-        <v>458</v>
-      </c>
-      <c r="M32" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="N32" s="50" t="s">
-        <v>460</v>
-      </c>
-      <c r="O32" s="50" t="s">
-        <v>461</v>
+      <c r="L32" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="M32" s="40" t="s">
+        <v>483</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="46">
+      <c r="A33" s="36">
         <v>32</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="36">
         <v>32</v>
       </c>
       <c r="C33" t="s">
@@ -5089,24 +5089,24 @@
       <c r="K33" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L33" s="50" t="s">
-        <v>462</v>
-      </c>
-      <c r="M33" s="50" t="s">
-        <v>463</v>
-      </c>
-      <c r="N33" s="50" t="s">
-        <v>464</v>
-      </c>
-      <c r="O33" s="50" t="s">
-        <v>465</v>
+      <c r="L33" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="M33" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="O33" s="40" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
+      <c r="A34" s="36">
         <v>33</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="36">
         <v>33</v>
       </c>
       <c r="C34" t="s">
@@ -5136,24 +5136,24 @@
       <c r="K34" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L34" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="M34" s="50" t="s">
-        <v>467</v>
-      </c>
-      <c r="N34" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="O34" s="50" t="s">
-        <v>469</v>
+      <c r="L34" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="N34" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
+      <c r="A35" s="36">
         <v>34</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="36">
         <v>34</v>
       </c>
       <c r="C35" t="s">
@@ -5183,24 +5183,24 @@
       <c r="K35" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L35" s="50" t="s">
-        <v>470</v>
-      </c>
-      <c r="M35" s="50" t="s">
-        <v>471</v>
-      </c>
-      <c r="N35" s="50" t="s">
-        <v>472</v>
-      </c>
-      <c r="O35" s="50" t="s">
-        <v>473</v>
+      <c r="L35" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="N35" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
+      <c r="A36" s="36">
         <v>35</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
@@ -5230,24 +5230,24 @@
       <c r="K36" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="50" t="s">
-        <v>474</v>
-      </c>
-      <c r="M36" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="N36" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="O36" s="50" t="s">
-        <v>477</v>
+      <c r="L36" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="N36" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
+      <c r="A37" s="36">
         <v>36</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="36">
         <v>36</v>
       </c>
       <c r="C37" t="s">
@@ -5277,24 +5277,24 @@
       <c r="K37" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L37" s="50" t="s">
-        <v>478</v>
-      </c>
-      <c r="M37" s="50" t="s">
-        <v>479</v>
-      </c>
-      <c r="N37" s="50" t="s">
-        <v>480</v>
-      </c>
-      <c r="O37" s="50" t="s">
-        <v>481</v>
+      <c r="L37" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="M37" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="O37" s="40" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="46">
+      <c r="A38" s="36">
         <v>37</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="36">
         <v>37</v>
       </c>
       <c r="C38" t="s">
@@ -5324,24 +5324,24 @@
       <c r="K38" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L38" s="50" t="s">
-        <v>482</v>
-      </c>
-      <c r="M38" s="50" t="s">
-        <v>483</v>
-      </c>
-      <c r="N38" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="O38" s="50" t="s">
-        <v>485</v>
+      <c r="L38" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="N38" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
+      <c r="A39" s="36">
         <v>38</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="36">
         <v>38</v>
       </c>
       <c r="C39" t="s">
@@ -5371,24 +5371,24 @@
       <c r="K39" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L39" s="50" t="s">
-        <v>486</v>
-      </c>
-      <c r="M39" s="50" t="s">
-        <v>487</v>
-      </c>
-      <c r="N39" s="50" t="s">
-        <v>488</v>
-      </c>
-      <c r="O39" s="50" t="s">
-        <v>489</v>
+      <c r="L39" s="40" t="s">
+        <v>510</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>512</v>
+      </c>
+      <c r="O39" s="40" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="46">
+      <c r="A40" s="36">
         <v>39</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="36">
         <v>39</v>
       </c>
       <c r="C40" t="s">
@@ -5418,24 +5418,24 @@
       <c r="K40" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L40" s="50" t="s">
-        <v>490</v>
-      </c>
-      <c r="M40" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="N40" s="50" t="s">
-        <v>492</v>
-      </c>
-      <c r="O40" s="50" t="s">
-        <v>493</v>
+      <c r="L40" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="M40" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="N40" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="O40" s="40" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="46">
+      <c r="A41" s="36">
         <v>40</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="36">
         <v>40</v>
       </c>
       <c r="C41" t="s">
@@ -5465,24 +5465,24 @@
       <c r="K41" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L41" s="50" t="s">
-        <v>498</v>
-      </c>
-      <c r="M41" s="50" t="s">
-        <v>499</v>
-      </c>
-      <c r="N41" s="50" t="s">
-        <v>500</v>
-      </c>
-      <c r="O41" s="50" t="s">
-        <v>501</v>
+      <c r="L41" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="M41" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="N41" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="O41" s="40" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="46">
+      <c r="A42" s="36">
         <v>41</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="36">
         <v>41</v>
       </c>
       <c r="C42" t="s">
@@ -5512,24 +5512,24 @@
       <c r="K42" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L42" s="50" t="s">
-        <v>502</v>
-      </c>
-      <c r="M42" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="N42" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="O42" s="50" t="s">
-        <v>505</v>
+      <c r="L42" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="M42" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="N42" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="O42" s="40" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
+      <c r="A43" s="36">
         <v>42</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="36">
         <v>42</v>
       </c>
       <c r="C43" t="s">
@@ -5559,24 +5559,24 @@
       <c r="K43" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L43" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="M43" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="N43" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="O43" s="50" t="s">
-        <v>509</v>
+      <c r="L43" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="M43" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="N43" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="O43" s="40" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="46">
+      <c r="A44" s="36">
         <v>43</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="36">
         <v>43</v>
       </c>
       <c r="C44" t="s">
@@ -5606,24 +5606,24 @@
       <c r="K44" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L44" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="M44" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="N44" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="O44" s="50" t="s">
-        <v>513</v>
+      <c r="L44" s="40" t="s">
+        <v>530</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="O44" s="40" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="46">
+      <c r="A45" s="36">
         <v>44</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="36">
         <v>44</v>
       </c>
       <c r="C45" t="s">
@@ -5653,24 +5653,24 @@
       <c r="K45" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L45" s="50" t="s">
-        <v>514</v>
-      </c>
-      <c r="M45" s="50" t="s">
-        <v>515</v>
-      </c>
-      <c r="N45" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="O45" s="50" t="s">
-        <v>517</v>
+      <c r="L45" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="M45" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="N45" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="O45" s="40" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
+      <c r="A46" s="36">
         <v>45</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="36">
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -5700,24 +5700,24 @@
       <c r="K46" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L46" s="50" t="s">
-        <v>518</v>
-      </c>
-      <c r="M46" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="N46" s="50" t="s">
-        <v>520</v>
-      </c>
-      <c r="O46" s="50" t="s">
-        <v>521</v>
+      <c r="L46" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="M46" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="N46" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="O46" s="40" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
+      <c r="A47" s="36">
         <v>46</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="36">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -5747,24 +5747,24 @@
       <c r="K47" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L47" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="M47" s="50" t="s">
-        <v>523</v>
-      </c>
-      <c r="N47" s="50" t="s">
-        <v>524</v>
-      </c>
-      <c r="O47" s="50" t="s">
-        <v>525</v>
+      <c r="L47" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="M47" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="N47" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="O47" s="40" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="46">
+      <c r="A48" s="36">
         <v>47</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="36">
         <v>47</v>
       </c>
       <c r="C48" t="s">
@@ -5794,24 +5794,24 @@
       <c r="K48" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L48" s="50" t="s">
-        <v>526</v>
-      </c>
-      <c r="M48" s="50" t="s">
-        <v>527</v>
-      </c>
-      <c r="N48" s="50" t="s">
-        <v>528</v>
-      </c>
-      <c r="O48" s="50" t="s">
-        <v>529</v>
+      <c r="L48" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="M48" s="40" t="s">
+        <v>547</v>
+      </c>
+      <c r="N48" s="40" t="s">
+        <v>548</v>
+      </c>
+      <c r="O48" s="40" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
+      <c r="A49" s="36">
         <v>48</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="36">
         <v>48</v>
       </c>
       <c r="C49" t="s">
@@ -5841,24 +5841,24 @@
       <c r="K49" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L49" s="50" t="s">
-        <v>530</v>
-      </c>
-      <c r="M49" s="50" t="s">
-        <v>531</v>
-      </c>
-      <c r="N49" s="50" t="s">
-        <v>532</v>
-      </c>
-      <c r="O49" s="50" t="s">
-        <v>533</v>
+      <c r="L49" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="M49" s="40" t="s">
+        <v>551</v>
+      </c>
+      <c r="N49" s="40" t="s">
+        <v>552</v>
+      </c>
+      <c r="O49" s="40" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="46">
+      <c r="A50" s="36">
         <v>49</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="36">
         <v>49</v>
       </c>
       <c r="C50" t="s">
@@ -5888,24 +5888,24 @@
       <c r="K50" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L50" s="50" t="s">
-        <v>534</v>
-      </c>
-      <c r="M50" s="50" t="s">
-        <v>535</v>
-      </c>
-      <c r="N50" s="50" t="s">
-        <v>536</v>
-      </c>
-      <c r="O50" s="50" t="s">
-        <v>537</v>
+      <c r="L50" s="40" t="s">
+        <v>554</v>
+      </c>
+      <c r="M50" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="N50" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="O50" s="40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="46">
+      <c r="A51" s="36">
         <v>50</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="36">
         <v>50</v>
       </c>
       <c r="C51" t="s">
@@ -5935,24 +5935,24 @@
       <c r="K51" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L51" s="50" t="s">
-        <v>542</v>
-      </c>
-      <c r="M51" s="50" t="s">
-        <v>543</v>
-      </c>
-      <c r="N51" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="O51" s="50" t="s">
-        <v>545</v>
+      <c r="L51" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="N51" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="O51" s="40" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="46">
+      <c r="A52" s="36">
         <v>51</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="36">
         <v>51</v>
       </c>
       <c r="C52" t="s">
@@ -5982,24 +5982,24 @@
       <c r="K52" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L52" s="50" t="s">
-        <v>546</v>
-      </c>
-      <c r="M52" s="50" t="s">
-        <v>547</v>
-      </c>
-      <c r="N52" s="50" t="s">
-        <v>548</v>
-      </c>
-      <c r="O52" s="50" t="s">
-        <v>549</v>
+      <c r="L52" s="40" t="s">
+        <v>562</v>
+      </c>
+      <c r="M52" s="40" t="s">
+        <v>563</v>
+      </c>
+      <c r="N52" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="O52" s="40" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
+      <c r="A53" s="36">
         <v>52</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="36">
         <v>52</v>
       </c>
       <c r="C53" t="s">
@@ -6029,24 +6029,24 @@
       <c r="K53" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L53" s="50" t="s">
-        <v>550</v>
-      </c>
-      <c r="M53" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="N53" s="50" t="s">
-        <v>552</v>
-      </c>
-      <c r="O53" s="50" t="s">
-        <v>553</v>
+      <c r="L53" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="M53" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="N53" s="40" t="s">
+        <v>568</v>
+      </c>
+      <c r="O53" s="40" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="46">
+      <c r="A54" s="36">
         <v>53</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="36">
         <v>53</v>
       </c>
       <c r="C54" t="s">
@@ -6076,24 +6076,24 @@
       <c r="K54" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L54" s="50" t="s">
-        <v>554</v>
-      </c>
-      <c r="M54" s="50" t="s">
-        <v>555</v>
-      </c>
-      <c r="N54" s="50" t="s">
-        <v>556</v>
-      </c>
-      <c r="O54" s="50" t="s">
-        <v>557</v>
+      <c r="L54" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="M54" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="N54" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="O54" s="40" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="46">
+      <c r="A55" s="36">
         <v>54</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="36">
         <v>54</v>
       </c>
       <c r="C55" t="s">
@@ -6123,18 +6123,18 @@
       <c r="K55" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L55" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="M55" s="50" t="s">
-        <v>559</v>
+      <c r="L55" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="46">
+      <c r="A56" s="36">
         <v>55</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="36">
         <v>55</v>
       </c>
       <c r="C56" t="s">
@@ -6164,24 +6164,24 @@
       <c r="K56" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L56" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="M56" s="50" t="s">
-        <v>561</v>
-      </c>
-      <c r="N56" s="50" t="s">
-        <v>562</v>
-      </c>
-      <c r="O56" s="50" t="s">
-        <v>563</v>
+      <c r="L56" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="M56" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="N56" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="O56" s="40" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="46">
+      <c r="A57" s="36">
         <v>56</v>
       </c>
-      <c r="B57" s="46">
+      <c r="B57" s="36">
         <v>56</v>
       </c>
       <c r="C57" t="s">
@@ -6211,24 +6211,24 @@
       <c r="K57" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L57" s="50" t="s">
-        <v>564</v>
-      </c>
-      <c r="M57" s="50" t="s">
-        <v>565</v>
-      </c>
-      <c r="N57" s="50" t="s">
-        <v>566</v>
-      </c>
-      <c r="O57" s="50" t="s">
-        <v>567</v>
+      <c r="L57" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="M57" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="N57" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="O57" s="40" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="46">
+      <c r="A58" s="36">
         <v>57</v>
       </c>
-      <c r="B58" s="46">
+      <c r="B58" s="36">
         <v>57</v>
       </c>
       <c r="C58" t="s">
@@ -6258,24 +6258,24 @@
       <c r="K58" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L58" s="50" t="s">
-        <v>568</v>
-      </c>
-      <c r="M58" s="50" t="s">
-        <v>569</v>
-      </c>
-      <c r="N58" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="O58" s="50" t="s">
-        <v>571</v>
+      <c r="L58" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="M58" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="N58" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="O58" s="40" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="46">
+      <c r="A59" s="36">
         <v>58</v>
       </c>
-      <c r="B59" s="46">
+      <c r="B59" s="36">
         <v>58</v>
       </c>
       <c r="C59" t="s">
@@ -6305,24 +6305,24 @@
       <c r="K59" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L59" s="50" t="s">
-        <v>572</v>
-      </c>
-      <c r="M59" s="50" t="s">
-        <v>573</v>
-      </c>
-      <c r="N59" s="50" t="s">
-        <v>574</v>
-      </c>
-      <c r="O59" s="50" t="s">
-        <v>575</v>
+      <c r="L59" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="M59" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="N59" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="O59" s="40" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="46">
+      <c r="A60" s="36">
         <v>59</v>
       </c>
-      <c r="B60" s="46">
+      <c r="B60" s="36">
         <v>59</v>
       </c>
       <c r="C60" t="s">
@@ -6352,24 +6352,24 @@
       <c r="K60" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L60" s="50" t="s">
-        <v>576</v>
-      </c>
-      <c r="M60" s="50" t="s">
-        <v>577</v>
-      </c>
-      <c r="N60" s="50" t="s">
-        <v>578</v>
-      </c>
-      <c r="O60" s="50" t="s">
-        <v>579</v>
+      <c r="L60" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="M60" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="N60" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="O60" s="40" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="46">
+      <c r="A61" s="36">
         <v>60</v>
       </c>
-      <c r="B61" s="46">
+      <c r="B61" s="36">
         <v>60</v>
       </c>
       <c r="C61" t="s">
@@ -6399,24 +6399,24 @@
       <c r="K61" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L61" s="50" t="s">
-        <v>584</v>
-      </c>
-      <c r="M61" s="50" t="s">
-        <v>585</v>
-      </c>
-      <c r="N61" s="50" t="s">
-        <v>586</v>
-      </c>
-      <c r="O61" s="50" t="s">
-        <v>587</v>
+      <c r="L61" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="M61" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="N61" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="O61" s="40" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="46">
+      <c r="A62" s="36">
         <v>61</v>
       </c>
-      <c r="B62" s="46">
+      <c r="B62" s="36">
         <v>61</v>
       </c>
       <c r="C62" t="s">
@@ -6446,24 +6446,24 @@
       <c r="K62" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L62" s="50" t="s">
-        <v>588</v>
-      </c>
-      <c r="M62" s="50" t="s">
-        <v>589</v>
-      </c>
-      <c r="N62" s="50" t="s">
-        <v>590</v>
-      </c>
-      <c r="O62" s="50" t="s">
-        <v>591</v>
+      <c r="L62" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="M62" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="N62" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="O62" s="40" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="46">
+      <c r="A63" s="36">
         <v>62</v>
       </c>
-      <c r="B63" s="46">
+      <c r="B63" s="36">
         <v>62</v>
       </c>
       <c r="C63" t="s">
@@ -6493,24 +6493,24 @@
       <c r="K63" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L63" s="50" t="s">
-        <v>592</v>
-      </c>
-      <c r="M63" s="50" t="s">
-        <v>593</v>
-      </c>
-      <c r="N63" s="50" t="s">
-        <v>594</v>
-      </c>
-      <c r="O63" s="50" t="s">
-        <v>595</v>
+      <c r="L63" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="M63" s="40" t="s">
+        <v>605</v>
+      </c>
+      <c r="N63" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="O63" s="40" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="46">
+      <c r="A64" s="36">
         <v>63</v>
       </c>
-      <c r="B64" s="46">
+      <c r="B64" s="36">
         <v>63</v>
       </c>
       <c r="C64" t="s">
@@ -6540,24 +6540,24 @@
       <c r="K64" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L64" s="50" t="s">
-        <v>596</v>
-      </c>
-      <c r="M64" s="50" t="s">
-        <v>597</v>
-      </c>
-      <c r="N64" s="50" t="s">
-        <v>598</v>
-      </c>
-      <c r="O64" s="50" t="s">
-        <v>599</v>
+      <c r="L64" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="M64" s="40" t="s">
+        <v>609</v>
+      </c>
+      <c r="N64" s="40" t="s">
+        <v>610</v>
+      </c>
+      <c r="O64" s="40" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="47">
+      <c r="A65" s="37">
         <v>64</v>
       </c>
-      <c r="B65" s="47">
+      <c r="B65" s="37">
         <v>64</v>
       </c>
       <c r="C65" t="s">
@@ -6587,22 +6587,22 @@
       <c r="K65" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L65" s="50" t="s">
-        <v>600</v>
-      </c>
-      <c r="M65" s="50" t="s">
-        <v>601</v>
-      </c>
-      <c r="N65" s="50" t="s">
-        <v>602</v>
-      </c>
-      <c r="O65" s="50" t="s">
-        <v>603</v>
+      <c r="L65" s="40" t="s">
+        <v>612</v>
+      </c>
+      <c r="M65" s="40" t="s">
+        <v>613</v>
+      </c>
+      <c r="N65" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="O65" s="40" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -6612,8 +6612,8 @@
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
@@ -6623,8 +6623,8 @@
       <c r="K67" s="11"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -6634,8 +6634,8 @@
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -6645,8 +6645,8 @@
       <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -6656,8 +6656,8 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
@@ -6667,8 +6667,8 @@
       <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -6678,8 +6678,8 @@
       <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
@@ -6689,8 +6689,8 @@
       <c r="K73" s="11"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -6711,8 +6711,8 @@
       <c r="K75" s="11"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -8683,15 +8683,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -8703,172 +8703,172 @@
       <c r="A3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="41"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="46"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="41"/>
+      <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="46"/>
     </row>
     <row r="8" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="46"/>
     </row>
     <row r="11" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="41"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="41"/>
+      <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="41"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="41"/>
+      <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="41"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="41"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -8880,28 +8880,28 @@
       <c r="A22" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -9005,10 +9005,10 @@
       <c r="A37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
@@ -9053,11 +9053,11 @@
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -9068,75 +9068,75 @@
       <c r="A43" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="46"/>
     </row>
     <row r="44" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="48"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="41"/>
+      <c r="C46" s="46"/>
     </row>
     <row r="47" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="41"/>
+      <c r="C47" s="46"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="41"/>
+      <c r="C48" s="46"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="41"/>
+      <c r="C49" s="46"/>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="41"/>
+      <c r="C50" s="46"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="41"/>
+      <c r="C51" s="46"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
@@ -9152,264 +9152,264 @@
       <c r="A54" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="41"/>
+      <c r="C54" s="46"/>
     </row>
     <row r="55" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
     </row>
     <row r="56" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="46"/>
     </row>
     <row r="57" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="46"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="46"/>
     </row>
     <row r="59" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="46"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="46"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="46"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="46"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="46"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="46"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="C66" s="41"/>
+      <c r="C66" s="46"/>
     </row>
     <row r="67" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="41"/>
+      <c r="C67" s="46"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="C68" s="41"/>
+      <c r="C68" s="46"/>
     </row>
     <row r="69" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="41"/>
+      <c r="C69" s="46"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="41"/>
+      <c r="C70" s="46"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C71" s="41"/>
+      <c r="C71" s="46"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="C72" s="41"/>
+      <c r="C72" s="46"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="41"/>
+      <c r="C73" s="46"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="41"/>
+      <c r="C74" s="46"/>
     </row>
     <row r="75" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="41"/>
+      <c r="C75" s="46"/>
     </row>
     <row r="76" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="41"/>
+      <c r="C76" s="46"/>
     </row>
     <row r="77" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="41"/>
+      <c r="C77" s="46"/>
     </row>
     <row r="78" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="41"/>
+      <c r="C78" s="46"/>
     </row>
     <row r="79" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="41"/>
+      <c r="C79" s="46"/>
     </row>
     <row r="80" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="41"/>
+      <c r="C80" s="46"/>
     </row>
     <row r="81" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="41"/>
+      <c r="C81" s="46"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="41"/>
+      <c r="C82" s="46"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="41"/>
+      <c r="C83" s="46"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
@@ -9868,25 +9868,40 @@
     <sortCondition ref="J93"/>
   </sortState>
   <mergeCells count="65">
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -9899,40 +9914,25 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
